--- a/dados_vermicompostagem_real.xlsx
+++ b/dados_vermicompostagem_real.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassi\OneDrive\Documentos\DoutoradoUNAERP 2025\Tese Final\Visitando Escolas\Escolas e Vermicomposteira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225BEFD7-08BD-4AC9-88E5-BEF9B6A4D02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87F82DB-691C-4369-912F-728DF4AA205D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F2E1ACE-BF20-4544-A36D-4856087F27A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0F2E1ACE-BF20-4544-A36D-4856087F27A1}"/>
   </bookViews>
   <sheets>
     <sheet name="escolas" sheetId="1" r:id="rId1"/>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDF517A-FCD6-4C12-9C3D-74EC3F9624B7}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B51EFF-1DC5-45F8-99F1-073760A57312}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,13 +724,13 @@
         <v>EEI_PN</v>
       </c>
       <c r="C2" s="2">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>35.5</v>
+        <v>37.5</v>
       </c>
       <c r="E2" s="2">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
         <v>38</v>
@@ -739,6 +739,7 @@
         <v>27</v>
       </c>
       <c r="J2" s="1">
+        <f>escolas!C2</f>
         <v>46050</v>
       </c>
       <c r="K2" s="1"/>
@@ -754,15 +755,15 @@
       </c>
       <c r="C3">
         <f>C2</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <f>D2</f>
-        <v>35.5</v>
+        <v>37.5</v>
       </c>
       <c r="E3">
         <f>E2</f>
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>19</v>
@@ -771,6 +772,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="1">
+        <f>J2</f>
         <v>46050</v>
       </c>
       <c r="K3" s="1">
